--- a/1. web_crawling+preprocessing/output/nstore_df.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_df.xlsx
@@ -5433,13 +5433,13 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E125">
         <v>12</v>
       </c>
       <c r="F125">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G125" t="s">
         <v>132</v>

--- a/1. web_crawling+preprocessing/output/nstore_df.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="452">
   <si>
     <t>버거킹</t>
   </si>
@@ -430,7 +430,7 @@
     <t>충청북도 충주시</t>
   </si>
   <si>
-    <t>세종특별자치시 금송로</t>
+    <t>세종특별자치시 세종특별자치시</t>
   </si>
   <si>
     <t>제주특별자치도 서귀포시</t>
@@ -517,9 +517,6 @@
     <t>경기도 가평군</t>
   </si>
   <si>
-    <t>경기도 여주군</t>
-  </si>
-  <si>
     <t>경기도 여주시</t>
   </si>
   <si>
@@ -589,54 +586,15 @@
     <t>경상북도 칠곡군</t>
   </si>
   <si>
-    <t>광주광역시 광역시</t>
-  </si>
-  <si>
     <t>부산광역시 서구</t>
   </si>
   <si>
     <t>부산광역시 중구</t>
   </si>
   <si>
-    <t>부산광역시 진구</t>
-  </si>
-  <si>
-    <t>세종특별자치시 고운동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 금남면</t>
-  </si>
-  <si>
-    <t>세종특별자치시 반곡동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 보람동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 부강동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 소담동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 연기면</t>
-  </si>
-  <si>
-    <t>세종특별자치시 조치원읍</t>
-  </si>
-  <si>
-    <t>세종특별자치시 종촌동</t>
-  </si>
-  <si>
-    <t>울산광역시 을주군</t>
-  </si>
-  <si>
     <t>인천광역시 강화군</t>
   </si>
   <si>
-    <t>인천광역시 남구</t>
-  </si>
-  <si>
     <t>인천광역시 옹진군</t>
   </si>
   <si>
@@ -724,9 +682,6 @@
     <t>충청남도 금산군</t>
   </si>
   <si>
-    <t>충청남도 당진군</t>
-  </si>
-  <si>
     <t>충청남도 부여군</t>
   </si>
   <si>
@@ -760,9 +715,6 @@
     <t>충청북도 증평군</t>
   </si>
   <si>
-    <t>충청북도 청원군</t>
-  </si>
-  <si>
     <t>강원도</t>
   </si>
   <si>
@@ -1153,9 +1105,6 @@
     <t>충주시</t>
   </si>
   <si>
-    <t>금송로</t>
-  </si>
-  <si>
     <t>서귀포시</t>
   </si>
   <si>
@@ -1234,9 +1183,6 @@
     <t>가평군</t>
   </si>
   <si>
-    <t>여주군</t>
-  </si>
-  <si>
     <t>여주시</t>
   </si>
   <si>
@@ -1303,42 +1249,6 @@
     <t>칠곡군</t>
   </si>
   <si>
-    <t>광역시</t>
-  </si>
-  <si>
-    <t>진구</t>
-  </si>
-  <si>
-    <t>고운동</t>
-  </si>
-  <si>
-    <t>금남면</t>
-  </si>
-  <si>
-    <t>반곡동</t>
-  </si>
-  <si>
-    <t>보람동</t>
-  </si>
-  <si>
-    <t>부강동</t>
-  </si>
-  <si>
-    <t>소담동</t>
-  </si>
-  <si>
-    <t>연기면</t>
-  </si>
-  <si>
-    <t>조치원읍</t>
-  </si>
-  <si>
-    <t>종촌동</t>
-  </si>
-  <si>
-    <t>을주군</t>
-  </si>
-  <si>
     <t>강화군</t>
   </si>
   <si>
@@ -1429,9 +1339,6 @@
     <t>금산군</t>
   </si>
   <si>
-    <t>당진군</t>
-  </si>
-  <si>
     <t>부여군</t>
   </si>
   <si>
@@ -1463,9 +1370,6 @@
   </si>
   <si>
     <t>증평군</t>
-  </si>
-  <si>
-    <t>청원군</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1910,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1939,10 +1843,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1968,10 +1872,10 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1997,10 +1901,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2026,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2055,10 +1959,10 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2084,10 +1988,10 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2113,10 +2017,10 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2142,10 +2046,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2171,10 +2075,10 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2200,10 +2104,10 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2229,10 +2133,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2258,10 +2162,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2287,10 +2191,10 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2316,10 +2220,10 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2345,10 +2249,10 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2374,10 +2278,10 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2403,10 +2307,10 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2432,10 +2336,10 @@
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I21" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2461,10 +2365,10 @@
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2490,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2519,10 +2423,10 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2548,10 +2452,10 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2577,10 +2481,10 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2606,10 +2510,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2635,10 +2539,10 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2664,10 +2568,10 @@
         <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2693,10 +2597,10 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2722,10 +2626,10 @@
         <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2751,10 +2655,10 @@
         <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2780,10 +2684,10 @@
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2809,10 +2713,10 @@
         <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2838,10 +2742,10 @@
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2867,10 +2771,10 @@
         <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2896,10 +2800,10 @@
         <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2925,10 +2829,10 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2942,22 +2846,22 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>21</v>
       </c>
       <c r="F39">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2983,10 +2887,10 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3012,10 +2916,10 @@
         <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3041,10 +2945,10 @@
         <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3070,10 +2974,10 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3099,10 +3003,10 @@
         <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3128,10 +3032,10 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3157,10 +3061,10 @@
         <v>53</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3186,10 +3090,10 @@
         <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3215,10 +3119,10 @@
         <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3244,10 +3148,10 @@
         <v>56</v>
       </c>
       <c r="H49" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3261,22 +3165,22 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G50" t="s">
         <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3290,22 +3194,22 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G51" t="s">
         <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3319,22 +3223,22 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G52" t="s">
         <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3360,10 +3264,10 @@
         <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3389,10 +3293,10 @@
         <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3418,10 +3322,10 @@
         <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3447,10 +3351,10 @@
         <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3476,10 +3380,10 @@
         <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3505,10 +3409,10 @@
         <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3534,10 +3438,10 @@
         <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3563,10 +3467,10 @@
         <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3592,10 +3496,10 @@
         <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I61" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3621,10 +3525,10 @@
         <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I62" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3650,10 +3554,10 @@
         <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3679,10 +3583,10 @@
         <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3708,10 +3612,10 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3737,10 +3641,10 @@
         <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I66" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3766,10 +3670,10 @@
         <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I67" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3795,10 +3699,10 @@
         <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3812,22 +3716,22 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>1.571428571428571</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="G69" t="s">
         <v>76</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3853,10 +3757,10 @@
         <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I70" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3882,10 +3786,10 @@
         <v>78</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3911,10 +3815,10 @@
         <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3940,10 +3844,10 @@
         <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I73" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3969,10 +3873,10 @@
         <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3998,10 +3902,10 @@
         <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I75" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4027,10 +3931,10 @@
         <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4056,10 +3960,10 @@
         <v>84</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I77" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4085,10 +3989,10 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4114,10 +4018,10 @@
         <v>86</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I79" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4143,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4172,10 +4076,10 @@
         <v>88</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I81" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4201,10 +4105,10 @@
         <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I82" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4230,10 +4134,10 @@
         <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I83" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4259,10 +4163,10 @@
         <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I84" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4288,10 +4192,10 @@
         <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I85" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4317,10 +4221,10 @@
         <v>93</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I86" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4346,10 +4250,10 @@
         <v>94</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I87" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4375,10 +4279,10 @@
         <v>95</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I88" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4404,10 +4308,10 @@
         <v>96</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I89" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4433,10 +4337,10 @@
         <v>97</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I90" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4462,10 +4366,10 @@
         <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I91" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4491,10 +4395,10 @@
         <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4520,10 +4424,10 @@
         <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I93" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4549,10 +4453,10 @@
         <v>101</v>
       </c>
       <c r="H94" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I94" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4578,10 +4482,10 @@
         <v>102</v>
       </c>
       <c r="H95" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I95" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4607,10 +4511,10 @@
         <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I96" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4636,10 +4540,10 @@
         <v>104</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I97" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4665,10 +4569,10 @@
         <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I98" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4694,10 +4598,10 @@
         <v>106</v>
       </c>
       <c r="H99" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I99" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4723,10 +4627,10 @@
         <v>107</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I100" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4752,10 +4656,10 @@
         <v>108</v>
       </c>
       <c r="H101" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I101" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4781,10 +4685,10 @@
         <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I102" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4810,10 +4714,10 @@
         <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I103" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4839,10 +4743,10 @@
         <v>111</v>
       </c>
       <c r="H104" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I104" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4868,10 +4772,10 @@
         <v>112</v>
       </c>
       <c r="H105" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I105" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4885,19 +4789,22 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
+      <c r="F106">
+        <v>0.3571428571428572</v>
+      </c>
       <c r="G106" t="s">
         <v>113</v>
       </c>
       <c r="H106" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I106" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4923,10 +4830,10 @@
         <v>114</v>
       </c>
       <c r="H107" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I107" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4952,10 +4859,10 @@
         <v>115</v>
       </c>
       <c r="H108" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I108" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4981,10 +4888,10 @@
         <v>116</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I109" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5010,10 +4917,10 @@
         <v>117</v>
       </c>
       <c r="H110" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I110" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5039,10 +4946,10 @@
         <v>118</v>
       </c>
       <c r="H111" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I111" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5068,10 +4975,10 @@
         <v>119</v>
       </c>
       <c r="H112" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I112" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5097,10 +5004,10 @@
         <v>120</v>
       </c>
       <c r="H113" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I113" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5126,10 +5033,10 @@
         <v>121</v>
       </c>
       <c r="H114" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I114" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5155,10 +5062,10 @@
         <v>122</v>
       </c>
       <c r="H115" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I115" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5184,10 +5091,10 @@
         <v>123</v>
       </c>
       <c r="H116" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I116" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5213,10 +5120,10 @@
         <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I117" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5242,10 +5149,10 @@
         <v>125</v>
       </c>
       <c r="H118" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5271,10 +5178,10 @@
         <v>126</v>
       </c>
       <c r="H119" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I119" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5300,10 +5207,10 @@
         <v>127</v>
       </c>
       <c r="H120" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I120" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5329,10 +5236,10 @@
         <v>128</v>
       </c>
       <c r="H121" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5346,22 +5253,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E122">
         <v>3</v>
       </c>
       <c r="F122">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="s">
         <v>129</v>
       </c>
       <c r="H122" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I122" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5387,10 +5294,10 @@
         <v>130</v>
       </c>
       <c r="H123" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I123" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5416,10 +5323,10 @@
         <v>131</v>
       </c>
       <c r="H124" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I124" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5445,10 +5352,10 @@
         <v>132</v>
       </c>
       <c r="H125" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I125" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5474,10 +5381,10 @@
         <v>133</v>
       </c>
       <c r="H126" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I126" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5503,10 +5410,10 @@
         <v>134</v>
       </c>
       <c r="H127" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I127" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5532,10 +5439,10 @@
         <v>135</v>
       </c>
       <c r="H128" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5549,22 +5456,22 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E129">
         <v>15</v>
       </c>
       <c r="F129">
-        <v>0.5555555555555556</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G129" t="s">
         <v>136</v>
       </c>
       <c r="H129" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I129" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5590,10 +5497,10 @@
         <v>137</v>
       </c>
       <c r="H130" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I130" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5607,19 +5514,22 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0.1</v>
       </c>
       <c r="G131" t="s">
         <v>138</v>
       </c>
       <c r="H131" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I131" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5645,10 +5555,10 @@
         <v>139</v>
       </c>
       <c r="H132" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I132" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5674,10 +5584,10 @@
         <v>140</v>
       </c>
       <c r="H133" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I133" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5703,10 +5613,10 @@
         <v>141</v>
       </c>
       <c r="H134" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I134" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5732,10 +5642,10 @@
         <v>142</v>
       </c>
       <c r="H135" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I135" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5761,10 +5671,10 @@
         <v>143</v>
       </c>
       <c r="H136" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I136" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5790,10 +5700,10 @@
         <v>144</v>
       </c>
       <c r="H137" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I137" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5819,10 +5729,10 @@
         <v>145</v>
       </c>
       <c r="H138" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I138" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5848,10 +5758,10 @@
         <v>146</v>
       </c>
       <c r="H139" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I139" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5877,10 +5787,10 @@
         <v>147</v>
       </c>
       <c r="H140" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I140" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5906,10 +5816,10 @@
         <v>148</v>
       </c>
       <c r="H141" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I141" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5935,10 +5845,10 @@
         <v>149</v>
       </c>
       <c r="H142" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I142" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5964,10 +5874,10 @@
         <v>150</v>
       </c>
       <c r="H143" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I143" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5981,22 +5891,22 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="G144" t="s">
         <v>151</v>
       </c>
       <c r="H144" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I144" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6022,10 +5932,10 @@
         <v>152</v>
       </c>
       <c r="H145" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I145" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6051,10 +5961,10 @@
         <v>153</v>
       </c>
       <c r="H146" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="I146" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6080,10 +5990,10 @@
         <v>154</v>
       </c>
       <c r="H147" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I147" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6109,10 +6019,10 @@
         <v>155</v>
       </c>
       <c r="H148" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I148" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6138,10 +6048,10 @@
         <v>156</v>
       </c>
       <c r="H149" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I149" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6167,10 +6077,10 @@
         <v>157</v>
       </c>
       <c r="H150" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I150" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6196,10 +6106,10 @@
         <v>158</v>
       </c>
       <c r="H151" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I151" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6225,10 +6135,10 @@
         <v>159</v>
       </c>
       <c r="H152" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I152" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6254,10 +6164,10 @@
         <v>160</v>
       </c>
       <c r="H153" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I153" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6283,10 +6193,10 @@
         <v>161</v>
       </c>
       <c r="H154" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I154" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6312,10 +6222,10 @@
         <v>162</v>
       </c>
       <c r="H155" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I155" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6341,10 +6251,10 @@
         <v>163</v>
       </c>
       <c r="H156" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I156" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6370,10 +6280,10 @@
         <v>164</v>
       </c>
       <c r="H157" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I157" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6399,10 +6309,10 @@
         <v>165</v>
       </c>
       <c r="H158" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I158" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6428,10 +6338,10 @@
         <v>166</v>
       </c>
       <c r="H159" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I159" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6445,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6457,10 +6367,10 @@
         <v>167</v>
       </c>
       <c r="H160" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I160" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6474,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -6486,10 +6396,10 @@
         <v>168</v>
       </c>
       <c r="H161" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I161" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6515,10 +6425,10 @@
         <v>169</v>
       </c>
       <c r="H162" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="I162" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6544,10 +6454,10 @@
         <v>170</v>
       </c>
       <c r="H163" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I163" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6573,10 +6483,10 @@
         <v>171</v>
       </c>
       <c r="H164" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I164" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6602,10 +6512,10 @@
         <v>172</v>
       </c>
       <c r="H165" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I165" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6631,10 +6541,10 @@
         <v>173</v>
       </c>
       <c r="H166" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I166" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6648,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -6660,10 +6570,10 @@
         <v>174</v>
       </c>
       <c r="H167" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I167" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6677,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -6689,10 +6599,10 @@
         <v>175</v>
       </c>
       <c r="H168" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I168" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6718,10 +6628,10 @@
         <v>176</v>
       </c>
       <c r="H169" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I169" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6747,10 +6657,10 @@
         <v>177</v>
       </c>
       <c r="H170" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I170" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6776,10 +6686,10 @@
         <v>178</v>
       </c>
       <c r="H171" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I171" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6805,10 +6715,10 @@
         <v>179</v>
       </c>
       <c r="H172" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="I172" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6822,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6834,10 +6744,10 @@
         <v>180</v>
       </c>
       <c r="H173" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I173" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6851,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6863,10 +6773,10 @@
         <v>181</v>
       </c>
       <c r="H174" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I174" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6892,10 +6802,10 @@
         <v>182</v>
       </c>
       <c r="H175" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I175" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6921,10 +6831,10 @@
         <v>183</v>
       </c>
       <c r="H176" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I176" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6950,10 +6860,10 @@
         <v>184</v>
       </c>
       <c r="H177" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I177" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6979,10 +6889,10 @@
         <v>185</v>
       </c>
       <c r="H178" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I178" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7008,10 +6918,10 @@
         <v>186</v>
       </c>
       <c r="H179" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I179" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7037,10 +6947,10 @@
         <v>187</v>
       </c>
       <c r="H180" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I180" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7066,10 +6976,10 @@
         <v>188</v>
       </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I181" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7083,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7095,10 +7005,10 @@
         <v>189</v>
       </c>
       <c r="H182" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="I182" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7124,10 +7034,10 @@
         <v>190</v>
       </c>
       <c r="H183" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I183" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7141,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7153,10 +7063,10 @@
         <v>191</v>
       </c>
       <c r="H184" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I184" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7170,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7182,10 +7092,10 @@
         <v>192</v>
       </c>
       <c r="H185" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I185" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7199,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7211,10 +7121,10 @@
         <v>193</v>
       </c>
       <c r="H186" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I186" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7228,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7240,10 +7150,10 @@
         <v>194</v>
       </c>
       <c r="H187" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I187" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7269,10 +7179,10 @@
         <v>195</v>
       </c>
       <c r="H188" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I188" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7298,10 +7208,10 @@
         <v>196</v>
       </c>
       <c r="H189" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I189" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7327,10 +7237,10 @@
         <v>197</v>
       </c>
       <c r="H190" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I190" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7356,10 +7266,10 @@
         <v>198</v>
       </c>
       <c r="H191" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I191" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7385,10 +7295,10 @@
         <v>199</v>
       </c>
       <c r="H192" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I192" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7414,10 +7324,10 @@
         <v>200</v>
       </c>
       <c r="H193" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I193" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7431,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7443,10 +7353,10 @@
         <v>201</v>
       </c>
       <c r="H194" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I194" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7460,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -7472,10 +7382,10 @@
         <v>202</v>
       </c>
       <c r="H195" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I195" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7501,10 +7411,10 @@
         <v>203</v>
       </c>
       <c r="H196" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I196" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7530,10 +7440,10 @@
         <v>204</v>
       </c>
       <c r="H197" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="I197" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7559,10 +7469,10 @@
         <v>205</v>
       </c>
       <c r="H198" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I198" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7576,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -7588,10 +7498,10 @@
         <v>206</v>
       </c>
       <c r="H199" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I199" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7617,10 +7527,10 @@
         <v>207</v>
       </c>
       <c r="H200" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="I200" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7646,10 +7556,10 @@
         <v>208</v>
       </c>
       <c r="H201" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I201" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7675,10 +7585,10 @@
         <v>209</v>
       </c>
       <c r="H202" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I202" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7704,10 +7614,10 @@
         <v>210</v>
       </c>
       <c r="H203" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I203" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7721,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -7733,10 +7643,10 @@
         <v>211</v>
       </c>
       <c r="H204" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I204" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7750,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -7762,10 +7672,10 @@
         <v>212</v>
       </c>
       <c r="H205" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I205" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7791,10 +7701,10 @@
         <v>213</v>
       </c>
       <c r="H206" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I206" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7820,10 +7730,10 @@
         <v>214</v>
       </c>
       <c r="H207" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I207" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7849,10 +7759,10 @@
         <v>215</v>
       </c>
       <c r="H208" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I208" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7878,10 +7788,10 @@
         <v>216</v>
       </c>
       <c r="H209" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I209" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7907,10 +7817,10 @@
         <v>217</v>
       </c>
       <c r="H210" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I210" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7936,10 +7846,10 @@
         <v>218</v>
       </c>
       <c r="H211" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I211" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7965,10 +7875,10 @@
         <v>219</v>
       </c>
       <c r="H212" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I212" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7982,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -7994,10 +7904,10 @@
         <v>220</v>
       </c>
       <c r="H213" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I213" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8023,10 +7933,10 @@
         <v>221</v>
       </c>
       <c r="H214" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I214" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8040,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -8052,10 +7962,10 @@
         <v>222</v>
       </c>
       <c r="H215" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I215" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8069,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8081,10 +7991,10 @@
         <v>223</v>
       </c>
       <c r="H216" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I216" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8110,10 +8020,10 @@
         <v>224</v>
       </c>
       <c r="H217" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I217" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8127,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8139,10 +8049,10 @@
         <v>225</v>
       </c>
       <c r="H218" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I218" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8156,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -8168,10 +8078,10 @@
         <v>226</v>
       </c>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I219" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8197,10 +8107,10 @@
         <v>227</v>
       </c>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I220" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8226,10 +8136,10 @@
         <v>228</v>
       </c>
       <c r="H221" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I221" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8243,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8255,10 +8165,10 @@
         <v>229</v>
       </c>
       <c r="H222" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I222" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8284,10 +8194,10 @@
         <v>230</v>
       </c>
       <c r="H223" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I223" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8301,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -8313,10 +8223,10 @@
         <v>231</v>
       </c>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I224" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8342,474 +8252,10 @@
         <v>232</v>
       </c>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I225" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="A226">
-        <v>0</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="s">
-        <v>233</v>
-      </c>
-      <c r="H226" t="s">
-        <v>263</v>
-      </c>
-      <c r="I226" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227">
-        <v>0</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="s">
-        <v>234</v>
-      </c>
-      <c r="H227" t="s">
-        <v>263</v>
-      </c>
-      <c r="I227" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228">
-        <v>0</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" t="s">
-        <v>235</v>
-      </c>
-      <c r="H228" t="s">
-        <v>263</v>
-      </c>
-      <c r="I228" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229">
-        <v>0</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="s">
-        <v>236</v>
-      </c>
-      <c r="H229" t="s">
-        <v>263</v>
-      </c>
-      <c r="I229" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230">
-        <v>0</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>2</v>
-      </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="s">
-        <v>237</v>
-      </c>
-      <c r="H230" t="s">
-        <v>263</v>
-      </c>
-      <c r="I230" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231">
-        <v>0</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="s">
-        <v>238</v>
-      </c>
-      <c r="H231" t="s">
-        <v>263</v>
-      </c>
-      <c r="I231" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232">
-        <v>0</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="s">
-        <v>239</v>
-      </c>
-      <c r="H232" t="s">
-        <v>263</v>
-      </c>
-      <c r="I232" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233">
-        <v>0</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="s">
-        <v>240</v>
-      </c>
-      <c r="H233" t="s">
-        <v>263</v>
-      </c>
-      <c r="I233" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234">
-        <v>0</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="s">
-        <v>241</v>
-      </c>
-      <c r="H234" t="s">
-        <v>263</v>
-      </c>
-      <c r="I234" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235">
-        <v>0</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="s">
-        <v>242</v>
-      </c>
-      <c r="H235" t="s">
-        <v>264</v>
-      </c>
-      <c r="I235" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236">
-        <v>0</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
-      <c r="H236" t="s">
-        <v>264</v>
-      </c>
-      <c r="I236" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237">
-        <v>0</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="s">
-        <v>244</v>
-      </c>
-      <c r="H237" t="s">
-        <v>264</v>
-      </c>
-      <c r="I237" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238">
-        <v>0</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="s">
-        <v>245</v>
-      </c>
-      <c r="H238" t="s">
-        <v>264</v>
-      </c>
-      <c r="I238" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239">
-        <v>0</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="s">
-        <v>246</v>
-      </c>
-      <c r="H239" t="s">
-        <v>264</v>
-      </c>
-      <c r="I239" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240">
-        <v>0</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="s">
-        <v>247</v>
-      </c>
-      <c r="H240" t="s">
-        <v>264</v>
-      </c>
-      <c r="I240" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241">
-        <v>0</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>4</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="s">
-        <v>248</v>
-      </c>
-      <c r="H241" t="s">
-        <v>264</v>
-      </c>
-      <c r="I241" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/1. web_crawling+preprocessing/output/nstore_df.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="462">
   <si>
     <t>버거킹</t>
   </si>
@@ -517,9 +517,6 @@
     <t>경기도 가평군</t>
   </si>
   <si>
-    <t>경기도 여주군</t>
-  </si>
-  <si>
     <t>경기도 여주시</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
     <t>경상북도 칠곡군</t>
   </si>
   <si>
-    <t>광주광역시 광역시</t>
-  </si>
-  <si>
     <t>부산광역시 서구</t>
   </si>
   <si>
@@ -601,31 +595,7 @@
     <t>부산광역시 진구</t>
   </si>
   <si>
-    <t>세종특별자치시 고운동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 금남면</t>
-  </si>
-  <si>
-    <t>세종특별자치시 반곡동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 보람동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 부강동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 소담동</t>
-  </si>
-  <si>
-    <t>세종특별자치시 연기면</t>
-  </si>
-  <si>
-    <t>세종특별자치시 조치원읍</t>
-  </si>
-  <si>
-    <t>세종특별자치시 종촌동</t>
+    <t>세종특별자치시 세종특별자치시</t>
   </si>
   <si>
     <t>울산광역시 을주군</t>
@@ -634,9 +604,6 @@
     <t>인천광역시 강화군</t>
   </si>
   <si>
-    <t>인천광역시 남구</t>
-  </si>
-  <si>
     <t>인천광역시 옹진군</t>
   </si>
   <si>
@@ -1234,9 +1201,6 @@
     <t>가평군</t>
   </si>
   <si>
-    <t>여주군</t>
-  </si>
-  <si>
     <t>여주시</t>
   </si>
   <si>
@@ -1303,37 +1267,7 @@
     <t>칠곡군</t>
   </si>
   <si>
-    <t>광역시</t>
-  </si>
-  <si>
     <t>진구</t>
-  </si>
-  <si>
-    <t>고운동</t>
-  </si>
-  <si>
-    <t>금남면</t>
-  </si>
-  <si>
-    <t>반곡동</t>
-  </si>
-  <si>
-    <t>보람동</t>
-  </si>
-  <si>
-    <t>부강동</t>
-  </si>
-  <si>
-    <t>소담동</t>
-  </si>
-  <si>
-    <t>연기면</t>
-  </si>
-  <si>
-    <t>조치원읍</t>
-  </si>
-  <si>
-    <t>종촌동</t>
   </si>
   <si>
     <t>을주군</t>
@@ -1823,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1910,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1939,10 +1873,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1968,10 +1902,10 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1997,10 +1931,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2026,10 +1960,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2055,10 +1989,10 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2084,10 +2018,10 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2113,10 +2047,10 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2142,10 +2076,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2171,10 +2105,10 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2200,10 +2134,10 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2229,10 +2163,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2258,10 +2192,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2287,10 +2221,10 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2316,10 +2250,10 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2345,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2374,10 +2308,10 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2403,10 +2337,10 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2432,10 +2366,10 @@
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I21" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2461,10 +2395,10 @@
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2490,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2519,10 +2453,10 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2548,10 +2482,10 @@
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2577,10 +2511,10 @@
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2606,10 +2540,10 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2635,10 +2569,10 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2664,10 +2598,10 @@
         <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2693,10 +2627,10 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2722,10 +2656,10 @@
         <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2751,10 +2685,10 @@
         <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2780,10 +2714,10 @@
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2809,10 +2743,10 @@
         <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2838,10 +2772,10 @@
         <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2867,10 +2801,10 @@
         <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2896,10 +2830,10 @@
         <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2925,10 +2859,10 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2942,22 +2876,22 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>21</v>
       </c>
       <c r="F39">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2983,10 +2917,10 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3012,10 +2946,10 @@
         <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3041,10 +2975,10 @@
         <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3070,10 +3004,10 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3099,10 +3033,10 @@
         <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3128,10 +3062,10 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3157,10 +3091,10 @@
         <v>53</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3186,10 +3120,10 @@
         <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3215,10 +3149,10 @@
         <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3244,10 +3178,10 @@
         <v>56</v>
       </c>
       <c r="H49" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3261,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G50" t="s">
         <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3290,22 +3224,22 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G51" t="s">
         <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3319,22 +3253,22 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G52" t="s">
         <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3360,10 +3294,10 @@
         <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3389,10 +3323,10 @@
         <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I54" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3418,10 +3352,10 @@
         <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I55" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3447,10 +3381,10 @@
         <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3476,10 +3410,10 @@
         <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I57" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3505,10 +3439,10 @@
         <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3534,10 +3468,10 @@
         <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I59" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3563,10 +3497,10 @@
         <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3592,10 +3526,10 @@
         <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3621,10 +3555,10 @@
         <v>69</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3650,10 +3584,10 @@
         <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3679,10 +3613,10 @@
         <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3708,10 +3642,10 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3737,10 +3671,10 @@
         <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I66" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3766,10 +3700,10 @@
         <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I67" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3795,10 +3729,10 @@
         <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3824,10 +3758,10 @@
         <v>76</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I69" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3853,10 +3787,10 @@
         <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I70" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3882,10 +3816,10 @@
         <v>78</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I71" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3911,10 +3845,10 @@
         <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I72" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3940,10 +3874,10 @@
         <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I73" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3969,10 +3903,10 @@
         <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3998,10 +3932,10 @@
         <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4027,10 +3961,10 @@
         <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4056,10 +3990,10 @@
         <v>84</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4085,10 +4019,10 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4114,10 +4048,10 @@
         <v>86</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4143,10 +4077,10 @@
         <v>87</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4172,10 +4106,10 @@
         <v>88</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I81" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4201,10 +4135,10 @@
         <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I82" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4230,10 +4164,10 @@
         <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I83" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4259,10 +4193,10 @@
         <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I84" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4288,10 +4222,10 @@
         <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I85" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4317,10 +4251,10 @@
         <v>93</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I86" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4346,10 +4280,10 @@
         <v>94</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4375,10 +4309,10 @@
         <v>95</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I88" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4404,10 +4338,10 @@
         <v>96</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I89" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4433,10 +4367,10 @@
         <v>97</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I90" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4462,10 +4396,10 @@
         <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I91" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4491,10 +4425,10 @@
         <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4520,10 +4454,10 @@
         <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I93" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4549,10 +4483,10 @@
         <v>101</v>
       </c>
       <c r="H94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4578,10 +4512,10 @@
         <v>102</v>
       </c>
       <c r="H95" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I95" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4607,10 +4541,10 @@
         <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I96" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4636,10 +4570,10 @@
         <v>104</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I97" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4665,10 +4599,10 @@
         <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I98" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4694,10 +4628,10 @@
         <v>106</v>
       </c>
       <c r="H99" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I99" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4723,10 +4657,10 @@
         <v>107</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I100" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4752,10 +4686,10 @@
         <v>108</v>
       </c>
       <c r="H101" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I101" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4781,10 +4715,10 @@
         <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I102" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4810,10 +4744,10 @@
         <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I103" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4839,10 +4773,10 @@
         <v>111</v>
       </c>
       <c r="H104" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I104" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4868,10 +4802,10 @@
         <v>112</v>
       </c>
       <c r="H105" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I105" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4885,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -4894,10 +4828,10 @@
         <v>113</v>
       </c>
       <c r="H106" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I106" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4923,10 +4857,10 @@
         <v>114</v>
       </c>
       <c r="H107" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I107" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4952,10 +4886,10 @@
         <v>115</v>
       </c>
       <c r="H108" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I108" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4981,10 +4915,10 @@
         <v>116</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I109" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5010,10 +4944,10 @@
         <v>117</v>
       </c>
       <c r="H110" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I110" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5039,10 +4973,10 @@
         <v>118</v>
       </c>
       <c r="H111" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I111" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5068,10 +5002,10 @@
         <v>119</v>
       </c>
       <c r="H112" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I112" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5097,10 +5031,10 @@
         <v>120</v>
       </c>
       <c r="H113" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I113" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5126,10 +5060,10 @@
         <v>121</v>
       </c>
       <c r="H114" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I114" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5155,10 +5089,10 @@
         <v>122</v>
       </c>
       <c r="H115" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I115" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5184,10 +5118,10 @@
         <v>123</v>
       </c>
       <c r="H116" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I116" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5213,10 +5147,10 @@
         <v>124</v>
       </c>
       <c r="H117" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I117" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5242,10 +5176,10 @@
         <v>125</v>
       </c>
       <c r="H118" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5271,10 +5205,10 @@
         <v>126</v>
       </c>
       <c r="H119" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I119" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5300,10 +5234,10 @@
         <v>127</v>
       </c>
       <c r="H120" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I120" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5329,10 +5263,10 @@
         <v>128</v>
       </c>
       <c r="H121" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5358,10 +5292,10 @@
         <v>129</v>
       </c>
       <c r="H122" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I122" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5387,10 +5321,10 @@
         <v>130</v>
       </c>
       <c r="H123" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I123" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5416,10 +5350,10 @@
         <v>131</v>
       </c>
       <c r="H124" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I124" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5445,10 +5379,10 @@
         <v>132</v>
       </c>
       <c r="H125" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I125" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5474,10 +5408,10 @@
         <v>133</v>
       </c>
       <c r="H126" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I126" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5503,10 +5437,10 @@
         <v>134</v>
       </c>
       <c r="H127" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I127" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5532,10 +5466,10 @@
         <v>135</v>
       </c>
       <c r="H128" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5561,10 +5495,10 @@
         <v>136</v>
       </c>
       <c r="H129" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I129" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5590,10 +5524,10 @@
         <v>137</v>
       </c>
       <c r="H130" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I130" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5616,10 +5550,10 @@
         <v>138</v>
       </c>
       <c r="H131" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I131" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5645,10 +5579,10 @@
         <v>139</v>
       </c>
       <c r="H132" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I132" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5674,10 +5608,10 @@
         <v>140</v>
       </c>
       <c r="H133" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I133" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5703,10 +5637,10 @@
         <v>141</v>
       </c>
       <c r="H134" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I134" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5732,10 +5666,10 @@
         <v>142</v>
       </c>
       <c r="H135" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I135" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5761,10 +5695,10 @@
         <v>143</v>
       </c>
       <c r="H136" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I136" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5790,10 +5724,10 @@
         <v>144</v>
       </c>
       <c r="H137" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I137" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5819,10 +5753,10 @@
         <v>145</v>
       </c>
       <c r="H138" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I138" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5848,10 +5782,10 @@
         <v>146</v>
       </c>
       <c r="H139" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I139" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5877,10 +5811,10 @@
         <v>147</v>
       </c>
       <c r="H140" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I140" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5906,10 +5840,10 @@
         <v>148</v>
       </c>
       <c r="H141" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I141" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5935,10 +5869,10 @@
         <v>149</v>
       </c>
       <c r="H142" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I142" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5964,10 +5898,10 @@
         <v>150</v>
       </c>
       <c r="H143" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I143" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5993,10 +5927,10 @@
         <v>151</v>
       </c>
       <c r="H144" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I144" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6022,10 +5956,10 @@
         <v>152</v>
       </c>
       <c r="H145" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I145" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6051,10 +5985,10 @@
         <v>153</v>
       </c>
       <c r="H146" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I146" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6080,10 +6014,10 @@
         <v>154</v>
       </c>
       <c r="H147" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I147" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6109,10 +6043,10 @@
         <v>155</v>
       </c>
       <c r="H148" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I148" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6138,10 +6072,10 @@
         <v>156</v>
       </c>
       <c r="H149" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I149" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6167,10 +6101,10 @@
         <v>157</v>
       </c>
       <c r="H150" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I150" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6196,10 +6130,10 @@
         <v>158</v>
       </c>
       <c r="H151" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I151" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6225,10 +6159,10 @@
         <v>159</v>
       </c>
       <c r="H152" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I152" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6254,10 +6188,10 @@
         <v>160</v>
       </c>
       <c r="H153" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I153" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6283,10 +6217,10 @@
         <v>161</v>
       </c>
       <c r="H154" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I154" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6312,10 +6246,10 @@
         <v>162</v>
       </c>
       <c r="H155" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I155" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6341,10 +6275,10 @@
         <v>163</v>
       </c>
       <c r="H156" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I156" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6370,10 +6304,10 @@
         <v>164</v>
       </c>
       <c r="H157" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I157" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6399,10 +6333,10 @@
         <v>165</v>
       </c>
       <c r="H158" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I158" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6428,10 +6362,10 @@
         <v>166</v>
       </c>
       <c r="H159" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I159" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6445,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6457,10 +6391,10 @@
         <v>167</v>
       </c>
       <c r="H160" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I160" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6474,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -6486,10 +6420,10 @@
         <v>168</v>
       </c>
       <c r="H161" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I161" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6515,10 +6449,10 @@
         <v>169</v>
       </c>
       <c r="H162" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I162" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6544,10 +6478,10 @@
         <v>170</v>
       </c>
       <c r="H163" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I163" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6573,10 +6507,10 @@
         <v>171</v>
       </c>
       <c r="H164" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I164" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6602,10 +6536,10 @@
         <v>172</v>
       </c>
       <c r="H165" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I165" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6631,10 +6565,10 @@
         <v>173</v>
       </c>
       <c r="H166" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I166" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6648,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -6660,10 +6594,10 @@
         <v>174</v>
       </c>
       <c r="H167" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I167" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6677,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -6689,10 +6623,10 @@
         <v>175</v>
       </c>
       <c r="H168" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I168" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6718,10 +6652,10 @@
         <v>176</v>
       </c>
       <c r="H169" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I169" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6747,10 +6681,10 @@
         <v>177</v>
       </c>
       <c r="H170" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I170" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6776,10 +6710,10 @@
         <v>178</v>
       </c>
       <c r="H171" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I171" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6805,10 +6739,10 @@
         <v>179</v>
       </c>
       <c r="H172" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I172" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6822,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6834,10 +6768,10 @@
         <v>180</v>
       </c>
       <c r="H173" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I173" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6851,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6863,10 +6797,10 @@
         <v>181</v>
       </c>
       <c r="H174" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I174" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6892,10 +6826,10 @@
         <v>182</v>
       </c>
       <c r="H175" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I175" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6921,10 +6855,10 @@
         <v>183</v>
       </c>
       <c r="H176" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I176" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6950,10 +6884,10 @@
         <v>184</v>
       </c>
       <c r="H177" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I177" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6979,10 +6913,10 @@
         <v>185</v>
       </c>
       <c r="H178" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I178" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7008,10 +6942,10 @@
         <v>186</v>
       </c>
       <c r="H179" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I179" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7037,10 +6971,10 @@
         <v>187</v>
       </c>
       <c r="H180" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I180" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7066,10 +7000,10 @@
         <v>188</v>
       </c>
       <c r="H181" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I181" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7083,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7095,10 +7029,10 @@
         <v>189</v>
       </c>
       <c r="H182" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I182" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7124,10 +7058,10 @@
         <v>190</v>
       </c>
       <c r="H183" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I183" t="s">
-        <v>428</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7141,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7153,10 +7087,10 @@
         <v>191</v>
       </c>
       <c r="H184" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I184" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7182,10 +7116,10 @@
         <v>192</v>
       </c>
       <c r="H185" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="I185" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7199,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7211,10 +7145,10 @@
         <v>193</v>
       </c>
       <c r="H186" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I186" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7228,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7240,10 +7174,10 @@
         <v>194</v>
       </c>
       <c r="H187" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I187" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7269,10 +7203,10 @@
         <v>195</v>
       </c>
       <c r="H188" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I188" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7298,10 +7232,10 @@
         <v>196</v>
       </c>
       <c r="H189" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I189" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7327,10 +7261,10 @@
         <v>197</v>
       </c>
       <c r="H190" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I190" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7356,10 +7290,10 @@
         <v>198</v>
       </c>
       <c r="H191" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I191" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7385,10 +7319,10 @@
         <v>199</v>
       </c>
       <c r="H192" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I192" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7414,10 +7348,10 @@
         <v>200</v>
       </c>
       <c r="H193" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I193" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7443,10 +7377,10 @@
         <v>201</v>
       </c>
       <c r="H194" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I194" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7460,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -7472,10 +7406,10 @@
         <v>202</v>
       </c>
       <c r="H195" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I195" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7501,10 +7435,10 @@
         <v>203</v>
       </c>
       <c r="H196" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I196" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7518,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -7530,10 +7464,10 @@
         <v>204</v>
       </c>
       <c r="H197" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I197" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7559,10 +7493,10 @@
         <v>205</v>
       </c>
       <c r="H198" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I198" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7576,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -7588,10 +7522,10 @@
         <v>206</v>
       </c>
       <c r="H199" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I199" t="s">
-        <v>313</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7617,10 +7551,10 @@
         <v>207</v>
       </c>
       <c r="H200" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I200" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7646,10 +7580,10 @@
         <v>208</v>
       </c>
       <c r="H201" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I201" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7675,10 +7609,10 @@
         <v>209</v>
       </c>
       <c r="H202" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I202" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7704,10 +7638,10 @@
         <v>210</v>
       </c>
       <c r="H203" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I203" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7733,10 +7667,10 @@
         <v>211</v>
       </c>
       <c r="H204" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I204" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7762,10 +7696,10 @@
         <v>212</v>
       </c>
       <c r="H205" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I205" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7791,10 +7725,10 @@
         <v>213</v>
       </c>
       <c r="H206" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I206" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7808,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -7820,10 +7754,10 @@
         <v>214</v>
       </c>
       <c r="H207" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I207" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7849,10 +7783,10 @@
         <v>215</v>
       </c>
       <c r="H208" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I208" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7878,10 +7812,10 @@
         <v>216</v>
       </c>
       <c r="H209" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I209" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7907,10 +7841,10 @@
         <v>217</v>
       </c>
       <c r="H210" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I210" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7924,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -7936,10 +7870,10 @@
         <v>218</v>
       </c>
       <c r="H211" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I211" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7965,10 +7899,10 @@
         <v>219</v>
       </c>
       <c r="H212" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I212" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7994,10 +7928,10 @@
         <v>220</v>
       </c>
       <c r="H213" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I213" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8023,10 +7957,10 @@
         <v>221</v>
       </c>
       <c r="H214" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I214" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8052,10 +7986,10 @@
         <v>222</v>
       </c>
       <c r="H215" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I215" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -8069,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -8081,10 +8015,10 @@
         <v>223</v>
       </c>
       <c r="H216" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I216" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -8110,10 +8044,10 @@
         <v>224</v>
       </c>
       <c r="H217" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I217" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8127,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -8139,10 +8073,10 @@
         <v>225</v>
       </c>
       <c r="H218" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I218" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -8168,10 +8102,10 @@
         <v>226</v>
       </c>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I219" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -8185,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8197,10 +8131,10 @@
         <v>227</v>
       </c>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I220" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8226,10 +8160,10 @@
         <v>228</v>
       </c>
       <c r="H221" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I221" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8243,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -8255,10 +8189,10 @@
         <v>229</v>
       </c>
       <c r="H222" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I222" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8284,10 +8218,10 @@
         <v>230</v>
       </c>
       <c r="H223" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I223" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8313,10 +8247,10 @@
         <v>231</v>
       </c>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I224" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8342,10 +8276,10 @@
         <v>232</v>
       </c>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I225" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8371,10 +8305,10 @@
         <v>233</v>
       </c>
       <c r="H226" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I226" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8388,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -8400,10 +8334,10 @@
         <v>234</v>
       </c>
       <c r="H227" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I227" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8417,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -8429,10 +8363,10 @@
         <v>235</v>
       </c>
       <c r="H228" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I228" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8458,10 +8392,10 @@
         <v>236</v>
       </c>
       <c r="H229" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I229" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8475,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -8487,329 +8421,10 @@
         <v>237</v>
       </c>
       <c r="H230" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I230" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231">
-        <v>0</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="s">
-        <v>238</v>
-      </c>
-      <c r="H231" t="s">
-        <v>263</v>
-      </c>
-      <c r="I231" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232">
-        <v>0</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="s">
-        <v>239</v>
-      </c>
-      <c r="H232" t="s">
-        <v>263</v>
-      </c>
-      <c r="I232" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233">
-        <v>0</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="s">
-        <v>240</v>
-      </c>
-      <c r="H233" t="s">
-        <v>263</v>
-      </c>
-      <c r="I233" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234">
-        <v>0</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="s">
-        <v>241</v>
-      </c>
-      <c r="H234" t="s">
-        <v>263</v>
-      </c>
-      <c r="I234" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235">
-        <v>0</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="s">
-        <v>242</v>
-      </c>
-      <c r="H235" t="s">
-        <v>264</v>
-      </c>
-      <c r="I235" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236">
-        <v>0</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
-      <c r="H236" t="s">
-        <v>264</v>
-      </c>
-      <c r="I236" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237">
-        <v>0</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="s">
-        <v>244</v>
-      </c>
-      <c r="H237" t="s">
-        <v>264</v>
-      </c>
-      <c r="I237" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238">
-        <v>0</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="s">
-        <v>245</v>
-      </c>
-      <c r="H238" t="s">
-        <v>264</v>
-      </c>
-      <c r="I238" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239">
-        <v>0</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="s">
-        <v>246</v>
-      </c>
-      <c r="H239" t="s">
-        <v>264</v>
-      </c>
-      <c r="I239" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240">
-        <v>0</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="s">
-        <v>247</v>
-      </c>
-      <c r="H240" t="s">
-        <v>264</v>
-      </c>
-      <c r="I240" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241">
-        <v>0</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>4</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="s">
-        <v>248</v>
-      </c>
-      <c r="H241" t="s">
-        <v>264</v>
-      </c>
-      <c r="I241" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
